--- a/customSim/LES/systemDefinition/Process.xlsx
+++ b/customSim/LES/systemDefinition/Process.xlsx
@@ -599,12 +599,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['process_2', 'process_3', 'process_4', 'process_5', 'resource_5']</t>
+          <t>['proc_2', 'proc_3', 'proc_4', 'proc_5', 'res_5']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['process_6', 'process_7', 'process_8', 'process_9', 'processs_10']</t>
+          <t>['proc_6', 'proc_7', 'proc_8', 'proc_9', 'proc_10']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['process_2', 'process_3', 'process_4', 'process_5', 'resource_5']</t>
+          <t>['proc_2', 'proc_3', 'proc_4', 'proc_5', 'res_5']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['process_6', 'process_7', 'process_8', 'process_9', 'processs_10']</t>
+          <t>['proc_6', 'proc_7', 'proc_8', 'proc_9', 'proc_10']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['process_1']</t>
+          <t>['proc_1']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
